--- a/PARAMETERS.xlsx
+++ b/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/Google Drive/DynCLM/00_CODE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3905B39F-A50D-8641-BDBA-40FBD1C4EDEF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE1A0-693E-3442-BDE8-A35AB6DB7474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
   <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/PARAMETERS.xlsx
+++ b/PARAMETERS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE1A0-693E-3442-BDE8-A35AB6DB7474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8F7DD-FE16-324B-85DC-B01F80607212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{808B526F-AB2B-2441-8B5B-B133981DB292}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
   <si>
     <t>Number</t>
   </si>
@@ -126,9 +126,6 @@
     <t>DEFINITION</t>
   </si>
   <si>
-    <t>SHEAR_MODULUS</t>
-  </si>
-  <si>
     <t>LAME_CONSTANT</t>
   </si>
   <si>
@@ -147,18 +144,12 @@
     <t>DILATANCY_ANGLE</t>
   </si>
   <si>
-    <t>VISCOSITY_EXPONENT</t>
-  </si>
-  <si>
     <t>CONSTRAINED_MODULUS</t>
   </si>
   <si>
     <t>WATER_BULK_MODULUS</t>
   </si>
   <si>
-    <t>CRITICAL_STATE_LINE</t>
-  </si>
-  <si>
     <t>LAMBDA</t>
   </si>
   <si>
@@ -171,15 +162,9 @@
     <t>INITIAL VOLUMETRIC STRAIN (Ev0)</t>
   </si>
   <si>
-    <t>PRECONSOLIDATION  + OCR</t>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
-    <t>BULK_MODULUS</t>
-  </si>
-  <si>
     <t>KW</t>
   </si>
   <si>
@@ -192,16 +177,67 @@
     <t>Visco-MCC</t>
   </si>
   <si>
-    <t>REFERENCE_PRECONSOLIDATION</t>
-  </si>
-  <si>
-    <t>INITIAL REFERENCE PRECONSOLIDATION</t>
-  </si>
-  <si>
     <t>CREEP_INDEX</t>
   </si>
   <si>
-    <t>MU*</t>
+    <t>CRITICAL_STATE_LINE - MF</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Mg (PZ)</t>
+  </si>
+  <si>
+    <t>BULK_MODULUS - KHAR</t>
+  </si>
+  <si>
+    <t>SHEAR_MODULUS - GHAR</t>
+  </si>
+  <si>
+    <t>PZ</t>
+  </si>
+  <si>
+    <t>ALPHA_F</t>
+  </si>
+  <si>
+    <t>ALPHA_G</t>
+  </si>
+  <si>
+    <t>BETA0</t>
+  </si>
+  <si>
+    <t>BETA1</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>GAMMA_HDM</t>
+  </si>
+  <si>
+    <t>HU0</t>
+  </si>
+  <si>
+    <t>GAMMA_U</t>
+  </si>
+  <si>
+    <t>VISCOSITY_EXPONENT - N</t>
+  </si>
+  <si>
+    <t>VISCOSITY - GAMMA0</t>
+  </si>
+  <si>
+    <t>Visco-PZ</t>
+  </si>
+  <si>
+    <t>REFERENCE_TIME</t>
+  </si>
+  <si>
+    <t>REFERENCE VISCO TIME</t>
+  </si>
+  <si>
+    <t>P0 - INITIAL_PRESSURE</t>
   </si>
 </sst>
 </file>
@@ -585,25 +621,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F23C1-07C1-3B4D-B011-398BF3B62F04}">
-  <dimension ref="B2:H38"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="42.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="20" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="16384" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,10 +661,16 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -637,13 +681,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -654,13 +698,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -671,78 +715,90 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -753,46 +809,49 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -803,76 +862,94 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -883,19 +960,25 @@
         <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -906,82 +989,100 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -992,64 +1093,82 @@
         <v>23</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>24</v>
       </c>
@@ -1060,30 +1179,42 @@
         <v>26</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>26</v>
       </c>
@@ -1094,132 +1225,284 @@
         <v>27</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
